--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
   <si>
     <t>Producto</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Tipos asociados a un tipo padre (tipID)</t>
-  </si>
-  <si>
     <t>/api/garzon</t>
   </si>
   <si>
@@ -70,27 +67,9 @@
     <t>/api/producto/tipo/:tipID</t>
   </si>
   <si>
-    <t>Buscar un producto por código (proID)</t>
-  </si>
-  <si>
-    <t>Listado y registro de productos</t>
-  </si>
-  <si>
-    <t>Listado y registro de tipos</t>
-  </si>
-  <si>
-    <t>Listado y registro de garzones</t>
-  </si>
-  <si>
-    <t>Listado de productos asociados a un tipo (tipID)</t>
-  </si>
-  <si>
     <t>/api/producto/ingrediente/:ingrediente</t>
   </si>
   <si>
-    <t>Trae productos si son o no ingredientes (true/false)</t>
-  </si>
-  <si>
     <t>/api/producto/ingrediente</t>
   </si>
   <si>
@@ -100,21 +79,12 @@
     <t>Registrar</t>
   </si>
   <si>
-    <t>Agrega o modifica ingredientes de un producto</t>
-  </si>
-  <si>
-    <t>Agrega o modifica precios de un producto</t>
-  </si>
-  <si>
     <t>Agregar</t>
   </si>
   <si>
     <t>Pedido</t>
   </si>
   <si>
-    <t>Comanda</t>
-  </si>
-  <si>
     <t>Ver</t>
   </si>
   <si>
@@ -184,18 +154,6 @@
     <t>Comanda (Tablet)</t>
   </si>
   <si>
-    <t>Consulta cuántos garzones son</t>
-  </si>
-  <si>
-    <t>Consulta cuántas mesas son</t>
-  </si>
-  <si>
-    <t>La app comienza desde acá</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>Producto 1</t>
   </si>
   <si>
@@ -302,13 +260,55 @@
   </si>
   <si>
     <t>Agregado 5</t>
+  </si>
+  <si>
+    <t>/api/pedido</t>
+  </si>
+  <si>
+    <t>/api/pedido/:pedID</t>
+  </si>
+  <si>
+    <t>/api/pedido/mesa/:mesID</t>
+  </si>
+  <si>
+    <t>/api/mesa</t>
+  </si>
+  <si>
+    <t>/api/mesa/:numero</t>
+  </si>
+  <si>
+    <t>Modificar estado</t>
+  </si>
+  <si>
+    <t>Listado hijos de tipID</t>
+  </si>
+  <si>
+    <t>Buscar (proID)</t>
+  </si>
+  <si>
+    <t>Listado asociados a tipID</t>
+  </si>
+  <si>
+    <t>Listar (true/false ingrediente)</t>
+  </si>
+  <si>
+    <t>Registra ingredientes</t>
+  </si>
+  <si>
+    <t>Registra precios</t>
+  </si>
+  <si>
+    <t>Modificar (items)</t>
+  </si>
+  <si>
+    <t>Buscar pedido asociado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +336,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,12 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -451,30 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="0"/>
       </left>
@@ -575,15 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -603,11 +571,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -615,106 +594,121 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,178 +1015,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1"/>
     <col min="2" max="2" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="1"/>
+    <col min="3" max="4" width="21.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D5" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D14" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1213,320 +1241,820 @@
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="3.5703125" style="1" customWidth="1"/>
+    <col min="11" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="3.5703125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="3.5703125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="K1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+      <c r="P1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35"/>
+    </row>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="7" t="s">
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="K6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="38"/>
+      <c r="P6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="38"/>
+      <c r="U6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="38"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I7" s="24"/>
+      <c r="K7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="P7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="U7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="24"/>
+    </row>
+    <row r="8" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="K8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="P8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="U8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="21"/>
+      <c r="W8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="K9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="P9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="U9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="K10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="21"/>
+      <c r="P10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="U10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="K11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="P11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="U11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="K12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="P12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="U12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="21"/>
+      <c r="W12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="K13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="P13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
+      <c r="U13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="G7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="G8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="G9" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="7:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="K16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="6:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="6:24" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
+  <mergeCells count="78">
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -74,9 +74,6 @@
     <t>/api/producto/ingrediente/:ingrediente</t>
   </si>
   <si>
-    <t>/api/producto/ingrediente</t>
-  </si>
-  <si>
     <t>/api/producto/precio</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Listar (true/false ingrediente)</t>
   </si>
   <si>
-    <t>Registra ingredientes</t>
-  </si>
-  <si>
     <t>Registra precios</t>
   </si>
   <si>
@@ -699,6 +693,12 @@
   </si>
   <si>
     <t>Menta</t>
+  </si>
+  <si>
+    <t>Modificar</t>
+  </si>
+  <si>
+    <t>Modificar nombre</t>
   </si>
 </sst>
 </file>
@@ -1086,84 +1086,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,12 +1095,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1186,9 +1102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,14 +1113,101 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,7 +1517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1530,10 +1530,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
@@ -1543,25 +1543,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>83</v>
+      <c r="A3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
@@ -1571,155 +1571,150 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="51" t="s">
-        <v>84</v>
+      <c r="A4" s="34"/>
+      <c r="B4" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="D6" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="55" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="55"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="59" t="s">
+      <c r="D8" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="59"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="59" t="s">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="59"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="59" t="s">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="59"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="60" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1747,41 +1742,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="F1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="F1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1792,22 +1787,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1815,225 +1810,225 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F6" s="51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
+        <v>4</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>4</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F11" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="23" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="9" t="s">
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="23" t="s">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="9" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="9" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="6:9" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2045,16 +2040,22 @@
     <row r="18" spans="6:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="F9:G9"/>
@@ -2063,12 +2064,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2080,7 +2075,7 @@
   <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -2120,151 +2115,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="17" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="F1" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="F1" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="P1" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="U1" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Z1" s="48" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="P1" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="U1" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Z1" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AE1" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AE1" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AJ1" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AJ1" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
     </row>
     <row r="2" spans="1:39" s="17" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="C2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="F2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="H2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="K2" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="AA2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AB2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AC2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE2" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="AF2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AG2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AH2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="AK2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="AL2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM2" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2275,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -2287,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I3" s="16">
         <v>1</v>
@@ -2299,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P3" s="16">
         <v>53</v>
@@ -2311,10 +2306,10 @@
         <v>15</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U3" s="16">
         <v>99</v>
@@ -2323,10 +2318,10 @@
         <v>16</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z3" s="16">
         <v>111</v>
@@ -2335,10 +2330,10 @@
         <v>13</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE3" s="16">
         <v>118</v>
@@ -2347,10 +2342,10 @@
         <v>14</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AH3" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ3" s="16">
         <v>121</v>
@@ -2359,10 +2354,10 @@
         <v>12</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM3" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2373,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -2385,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -2397,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P4" s="15">
         <v>54</v>
@@ -2409,10 +2404,10 @@
         <v>15</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U4" s="15">
         <v>100</v>
@@ -2421,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z4" s="15">
         <v>112</v>
@@ -2433,10 +2428,10 @@
         <v>13</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE4" s="15">
         <v>119</v>
@@ -2445,10 +2440,10 @@
         <v>14</v>
       </c>
       <c r="AG4" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2459,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -2471,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I5" s="16">
         <v>1</v>
@@ -2483,10 +2478,10 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P5" s="16">
         <v>55</v>
@@ -2495,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U5" s="16">
         <v>101</v>
@@ -2507,10 +2502,10 @@
         <v>16</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z5" s="16">
         <v>113</v>
@@ -2519,10 +2514,10 @@
         <v>13</v>
       </c>
       <c r="AB5" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AC5" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE5" s="16">
         <v>120</v>
@@ -2531,10 +2526,10 @@
         <v>14</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2545,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -2557,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
@@ -2569,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P6" s="15">
         <v>56</v>
@@ -2581,10 +2576,10 @@
         <v>15</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U6" s="15">
         <v>102</v>
@@ -2593,10 +2588,10 @@
         <v>16</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z6" s="15">
         <v>114</v>
@@ -2605,10 +2600,10 @@
         <v>13</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2619,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
@@ -2631,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I7" s="16">
         <v>1</v>
@@ -2643,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P7" s="16">
         <v>57</v>
@@ -2655,10 +2650,10 @@
         <v>15</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U7" s="16">
         <v>103</v>
@@ -2667,10 +2662,10 @@
         <v>16</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z7" s="16">
         <v>115</v>
@@ -2679,10 +2674,10 @@
         <v>13</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC7" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -2705,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -2717,10 +2712,10 @@
         <v>2</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P8" s="15">
         <v>58</v>
@@ -2729,10 +2724,10 @@
         <v>15</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U8" s="15">
         <v>104</v>
@@ -2741,10 +2736,10 @@
         <v>16</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z8" s="15">
         <v>116</v>
@@ -2753,10 +2748,10 @@
         <v>13</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
@@ -2779,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I9" s="16">
         <v>1</v>
@@ -2791,10 +2786,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P9" s="16">
         <v>59</v>
@@ -2803,10 +2798,10 @@
         <v>15</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U9" s="16">
         <v>105</v>
@@ -2815,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="16">
         <v>117</v>
@@ -2827,10 +2822,10 @@
         <v>13</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2841,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -2853,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P10" s="15">
         <v>60</v>
@@ -2865,10 +2860,10 @@
         <v>15</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U10" s="15">
         <v>106</v>
@@ -2877,10 +2872,10 @@
         <v>16</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2891,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="16">
         <v>0</v>
@@ -2903,10 +2898,10 @@
         <v>2</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P11" s="16">
         <v>61</v>
@@ -2915,10 +2910,10 @@
         <v>15</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U11" s="16">
         <v>107</v>
@@ -2927,10 +2922,10 @@
         <v>16</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2941,10 +2936,10 @@
         <v>6</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P12" s="15">
         <v>62</v>
@@ -2953,10 +2948,10 @@
         <v>15</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U12" s="15">
         <v>108</v>
@@ -2965,18 +2960,18 @@
         <v>16</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="19"/>
       <c r="K13" s="16">
         <v>11</v>
@@ -2985,10 +2980,10 @@
         <v>6</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="16">
         <v>63</v>
@@ -2997,10 +2992,10 @@
         <v>15</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U13" s="16">
         <v>109</v>
@@ -3009,21 +3004,21 @@
         <v>16</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="K14" s="15">
@@ -3033,10 +3028,10 @@
         <v>7</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P14" s="15">
         <v>64</v>
@@ -3045,10 +3040,10 @@
         <v>15</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U14" s="15">
         <v>110</v>
@@ -3057,10 +3052,10 @@
         <v>16</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3071,7 +3066,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K15" s="16">
         <v>13</v>
@@ -3080,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P15" s="16">
         <v>65</v>
@@ -3092,10 +3087,10 @@
         <v>15</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3106,7 +3101,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K16" s="15">
         <v>14</v>
@@ -3115,10 +3110,10 @@
         <v>7</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="15">
         <v>66</v>
@@ -3127,10 +3122,10 @@
         <v>15</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3141,7 +3136,7 @@
         <v>94</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="16">
         <v>15</v>
@@ -3150,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P17" s="16">
         <v>67</v>
@@ -3162,10 +3157,10 @@
         <v>15</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3176,7 +3171,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K18" s="15">
         <v>16</v>
@@ -3185,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P18" s="15">
         <v>68</v>
@@ -3197,10 +3192,10 @@
         <v>15</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3211,7 +3206,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K19" s="16">
         <v>17</v>
@@ -3220,10 +3215,10 @@
         <v>7</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P19" s="16">
         <v>69</v>
@@ -3232,10 +3227,10 @@
         <v>15</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3246,7 +3241,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K20" s="15">
         <v>18</v>
@@ -3255,10 +3250,10 @@
         <v>7</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P20" s="15">
         <v>70</v>
@@ -3267,10 +3262,10 @@
         <v>15</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3281,7 +3276,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K21" s="16">
         <v>19</v>
@@ -3290,10 +3285,10 @@
         <v>7</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P21" s="16">
         <v>71</v>
@@ -3302,10 +3297,10 @@
         <v>15</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3316,7 +3311,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K22" s="15">
         <v>20</v>
@@ -3325,10 +3320,10 @@
         <v>7</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P22" s="15">
         <v>72</v>
@@ -3337,10 +3332,10 @@
         <v>15</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3351,7 +3346,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K23" s="16">
         <v>21</v>
@@ -3360,10 +3355,10 @@
         <v>7</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P23" s="16">
         <v>73</v>
@@ -3372,10 +3367,10 @@
         <v>15</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3386,7 +3381,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K24" s="15">
         <v>22</v>
@@ -3395,10 +3390,10 @@
         <v>7</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P24" s="15">
         <v>74</v>
@@ -3407,10 +3402,10 @@
         <v>15</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3421,7 +3416,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K25" s="16">
         <v>23</v>
@@ -3430,10 +3425,10 @@
         <v>7</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P25" s="16">
         <v>75</v>
@@ -3442,10 +3437,10 @@
         <v>15</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3456,7 +3451,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K26" s="15">
         <v>24</v>
@@ -3465,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P26" s="15">
         <v>76</v>
@@ -3477,10 +3472,10 @@
         <v>15</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3491,10 +3486,10 @@
         <v>7</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P27" s="16">
         <v>77</v>
@@ -3503,10 +3498,10 @@
         <v>15</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3517,10 +3512,10 @@
         <v>7</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P28" s="15">
         <v>78</v>
@@ -3529,10 +3524,10 @@
         <v>15</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3543,10 +3538,10 @@
         <v>8</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P29" s="16">
         <v>79</v>
@@ -3555,10 +3550,10 @@
         <v>15</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3569,10 +3564,10 @@
         <v>8</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P30" s="15">
         <v>80</v>
@@ -3581,10 +3576,10 @@
         <v>15</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,10 +3590,10 @@
         <v>8</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P31" s="16">
         <v>81</v>
@@ -3607,10 +3602,10 @@
         <v>15</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P32" s="15">
         <v>82</v>
@@ -3633,10 +3628,10 @@
         <v>15</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3647,10 +3642,10 @@
         <v>9</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P33" s="16">
         <v>83</v>
@@ -3659,10 +3654,10 @@
         <v>15</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3673,10 +3668,10 @@
         <v>9</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P34" s="15">
         <v>84</v>
@@ -3685,10 +3680,10 @@
         <v>15</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3699,10 +3694,10 @@
         <v>9</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P35" s="16">
         <v>85</v>
@@ -3711,10 +3706,10 @@
         <v>15</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3725,10 +3720,10 @@
         <v>9</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P36" s="15">
         <v>86</v>
@@ -3737,10 +3732,10 @@
         <v>15</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3751,10 +3746,10 @@
         <v>9</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P37" s="16">
         <v>87</v>
@@ -3763,10 +3758,10 @@
         <v>15</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3777,10 +3772,10 @@
         <v>9</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P38" s="15">
         <v>88</v>
@@ -3789,10 +3784,10 @@
         <v>15</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3803,10 +3798,10 @@
         <v>9</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P39" s="16">
         <v>89</v>
@@ -3815,10 +3810,10 @@
         <v>15</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3829,10 +3824,10 @@
         <v>9</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P40" s="15">
         <v>90</v>
@@ -3841,10 +3836,10 @@
         <v>15</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3855,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P41" s="16">
         <v>91</v>
@@ -3867,10 +3862,10 @@
         <v>15</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3881,10 +3876,10 @@
         <v>3</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P42" s="15">
         <v>92</v>
@@ -3893,10 +3888,10 @@
         <v>15</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3907,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P43" s="16">
         <v>93</v>
@@ -3919,10 +3914,10 @@
         <v>15</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3933,10 +3928,10 @@
         <v>3</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P44" s="15">
         <v>94</v>
@@ -3945,10 +3940,10 @@
         <v>15</v>
       </c>
       <c r="R44" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3959,10 +3954,10 @@
         <v>3</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P45" s="16">
         <v>95</v>
@@ -3971,10 +3966,10 @@
         <v>15</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3985,10 +3980,10 @@
         <v>3</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P46" s="15">
         <v>96</v>
@@ -3997,10 +3992,10 @@
         <v>15</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4011,10 +4006,10 @@
         <v>3</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P47" s="16">
         <v>97</v>
@@ -4023,10 +4018,10 @@
         <v>15</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="11:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4037,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P48" s="15">
         <v>98</v>
@@ -4049,10 +4044,10 @@
         <v>15</v>
       </c>
       <c r="R48" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="11:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4063,10 +4058,10 @@
         <v>3</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="11:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4077,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="11:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4091,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="11:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4105,10 +4100,10 @@
         <v>3</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="11:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4119,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="11:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4133,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595" activeTab="3"/>
+    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
   <si>
     <t>Producto</t>
   </si>
@@ -589,6 +589,15 @@
   </si>
   <si>
     <t>Segrgar ingredientes por producto seleccionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mesa disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mesa atendida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mesa solicitando cuenta</t>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,8 +749,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -849,11 +876,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -957,6 +993,48 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,53 +1044,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,6 +1124,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="5476875"/>
+          <a:ext cx="3048000" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1086,13 +1175,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1113,56 +1202,18 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8353425" y="5476875"/>
-          <a:ext cx="3048000" cy="4876800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1175,8 +1226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="5476875"/>
-          <a:ext cx="3048000" cy="4876800"/>
+          <a:off x="8353425" y="5476874"/>
+          <a:ext cx="3048000" cy="4876799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,7 +1712,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
@@ -1719,54 +1770,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="14" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="P1" s="46" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Z1" s="46" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Z1" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AE1" s="46" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2571,11 +2622,11 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="16"/>
       <c r="K13" s="13">
         <v>11</v>
@@ -3759,8 +3810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3780,30 +3831,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="K1" s="51" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="K1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
@@ -3840,10 +3891,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3854,8 +3905,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -3864,8 +3915,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
@@ -3874,8 +3925,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3884,10 +3935,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="44">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3898,8 +3949,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3908,8 +3959,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
@@ -3918,8 +3969,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
@@ -3928,8 +3979,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3937,33 +3988,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="52" t="s">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
+      <c r="B16" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="58"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="K23" s="53" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="K23" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3975,7 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595" activeTab="2"/>
+    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="192">
   <si>
     <t>Producto</t>
   </si>
@@ -588,9 +588,6 @@
     <t>Comanda</t>
   </si>
   <si>
-    <t>Segrgar ingredientes por producto seleccionado</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mesa disponible</t>
   </si>
   <si>
@@ -598,6 +595,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Mesa solicitando cuenta</t>
+  </si>
+  <si>
+    <t>Segregar ingredientes por producto seleccionado</t>
+  </si>
+  <si>
+    <t>Considerar precio pizza más cara para 1/2 pizzas</t>
   </si>
 </sst>
 </file>
@@ -981,6 +984,15 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,10 +1017,13 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,43 +1035,10 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,6 +1046,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1573,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -1584,7 +1587,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -1608,7 +1611,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1623,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1634,7 +1637,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="28" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +1649,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1659,7 @@
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -1678,7 +1681,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="25" t="s">
         <v>43</v>
       </c>
@@ -1690,7 +1693,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
@@ -1770,54 +1773,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="14" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="U1" s="35" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="U1" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Z1" s="35" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AE1" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AJ1" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2622,11 +2625,11 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="16"/>
       <c r="K13" s="13">
         <v>11</v>
@@ -3810,7 +3813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3831,30 +3834,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="F1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="K1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
@@ -3891,10 +3894,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3905,8 +3908,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -3915,8 +3918,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
@@ -3925,8 +3928,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3935,10 +3938,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+      <c r="A9" s="54">
         <v>4</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3949,8 +3952,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3959,8 +3962,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
@@ -3969,8 +3972,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
@@ -3979,8 +3982,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3990,48 +3993,43 @@
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="58"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57" t="s">
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="58"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="K23" s="40" t="s">
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="K23" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="A5:A8"/>
@@ -4040,6 +4038,11 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4049,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,7 +4074,21 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api.xlsx
+++ b/docs/api.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595" activeTab="3"/>
+    <workbookView xWindow="165" yWindow="45" windowWidth="11835" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="5" r:id="rId2"/>
     <sheet name="Comanda" sheetId="4" r:id="rId3"/>
-    <sheet name="Pendientes" sheetId="6" r:id="rId4"/>
+    <sheet name="Caja" sheetId="8" r:id="rId4"/>
+    <sheet name="Mantención" sheetId="10" r:id="rId5"/>
+    <sheet name="Pendientes" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$3:$M$3</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="208">
   <si>
     <t>Producto</t>
   </si>
@@ -601,6 +603,54 @@
   </si>
   <si>
     <t>Considerar precio pizza más cara para 1/2 pizzas</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Listado de Mesas por colores según estado (hacer clic)</t>
+  </si>
+  <si>
+    <t>Al seleccionar la mesa, se despliega el pedido</t>
+  </si>
+  <si>
+    <t>Sin botones</t>
+  </si>
+  <si>
+    <t>Pagar</t>
+  </si>
+  <si>
+    <t>Imprimir</t>
+  </si>
+  <si>
+    <t>Imprime la cuenta para ser entregada al cliente</t>
+  </si>
+  <si>
+    <t>Cuando el garzón vuelve con el dinero, se registran los valores</t>
+  </si>
+  <si>
+    <t>Caja (PC)</t>
+  </si>
+  <si>
+    <t>Limpia los valores para agregar un nuevo item</t>
+  </si>
+  <si>
+    <t>Limpia los valores</t>
+  </si>
+  <si>
+    <t>Modifica item seleccionado o registra item nuevo</t>
+  </si>
+  <si>
+    <t>/api/cuenta/:cueID</t>
+  </si>
+  <si>
+    <t>Busca cuenta por cueID</t>
   </si>
 </sst>
 </file>
@@ -771,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -888,11 +938,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -996,49 +1144,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,12 +1153,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,6 +1205,111 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,6 +1475,92 @@
         <a:xfrm>
           <a:off x="8353425" y="5476874"/>
           <a:ext cx="3048000" cy="4876799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2170887</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="238125"/>
+          <a:ext cx="6504762" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2408921</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="219075"/>
+          <a:ext cx="7228571" cy="5180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,11 +1859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1573,7 +1903,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -1587,7 +1917,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1927,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -1611,7 +1941,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1953,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1637,7 +1967,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="28" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1979,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
       </c>
@@ -1659,7 +1989,7 @@
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1999,7 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -1681,7 +2011,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="25" t="s">
         <v>43</v>
       </c>
@@ -1693,7 +2023,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
@@ -1703,7 +2033,7 @@
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="89" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -1714,10 +2044,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="90"/>
+      <c r="B15" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A10"/>
@@ -1773,54 +2115,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="14" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="F1" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="P1" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="U1" s="38" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="38" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Z1" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AE1" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AJ1" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
     </row>
     <row r="2" spans="1:39" s="14" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2625,11 +2967,11 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="16"/>
       <c r="K13" s="13">
         <v>11</v>
@@ -3813,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3834,30 +4176,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="F1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="K1" s="49" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
@@ -3894,10 +4236,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3908,8 +4250,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -3918,8 +4260,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
@@ -3928,8 +4270,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3938,10 +4280,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54">
+      <c r="A9" s="51">
         <v>4</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3952,8 +4294,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3962,8 +4304,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
@@ -3972,8 +4314,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
@@ -3982,8 +4324,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3994,42 +4336,47 @@
     <row r="14" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="K23" s="53" t="s">
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="K23" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="A5:A8"/>
@@ -4038,11 +4385,6 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4052,9 +4394,423 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="32.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="G1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="81"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="78"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="78"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="78"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="J9" s="78"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="J10" s="78"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="J12" s="77" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="J13" s="78"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="37"/>
+      <c r="J15" s="78"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="37"/>
+      <c r="J16" s="79"/>
+    </row>
+    <row r="17" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="F1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87">
+        <v>1</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84">
+        <v>2</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>3</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
